--- a/fitness_by_generation.xlsx
+++ b/fitness_by_generation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prupi\ADA\FinalProject\ADAProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C856C095-54D7-4809-944F-86AAFCCB76E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42EEBA7-8903-43EA-991B-2502A7BCA465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="5100" windowWidth="21600" windowHeight="11175" xr2:uid="{2E544A1B-159D-42B5-BA90-E1F4874143E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E544A1B-159D-42B5-BA90-E1F4874143E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,6 +83,1942 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fitness</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Top Performer for each Generation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="79375" cap="rnd">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$300</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="300"/>
+                <c:pt idx="0">
+                  <c:v>234.90000899999899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>281.69998099999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>347.24003599999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301.58990299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>323.75996500000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>336.44002999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325.23000999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320.349942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>308.40005500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350.540007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>352.550048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342.17999400000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>414.82995499999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>374.63000499999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>356.49008099999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>325.04006900000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>339.12995799999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350.899992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>341.07997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>362.89999399999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>370.35003399999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>351.59005400000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>351.92001299999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>347.11999300000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>379.06002599999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>383.97009400000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>342.14001400000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>392.63999799999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>367.55999700000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>333.96996999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>377.94000099999897</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>381.81996099999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>346.26000900000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350.07000599999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>406.16993300000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>399.03997700000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>376.56997699999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>335.17999099999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>382.62994099999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>384.09992899999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>374.19994800000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>355.13998299999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>356.499999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>368.50994700000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>399.00993199999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>365.920029</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>378.69001700000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>376.38992200000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>355.249969999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>390.88999899999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>363.82995499999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>362.00999400000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>377.41000200000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>406.35998499999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>361.64996400000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>404.05001700000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>340.57996900000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>342.94000199999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>385.47999399999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>417.899945</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>394.04987799999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>376.12004100000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>399.169983</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>364.76994200000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>434.28982100000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>367.67997700000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>356.98995599999898</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>366.84995999999899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>375.56004200000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>364.04993999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>384.39996499999899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>366.16996799999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>388.18003700000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>362.070021</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>352.89991800000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>398.540007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>372.15997399999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>451.33998100000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>334.96992399999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>366.059935</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>424.39991500000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>398.67996199999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>367.129974</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>373.16999499999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>379.38998299999901</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>378.38992300000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>450.13000399999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>388.58996300000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>385.39004199999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>435.40000800000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>417.64996200000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>437.04003799999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>391.269926</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>395.730009</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>373.72000100000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>387.080017</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>391.65998599999898</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>428.81004300000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>425.07003600000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>381.11994600000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>402.88002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>422.94998199999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>410.56001099999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>394.68996800000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>381.59994399999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>405.569928</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>421.52999799999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>400.11002999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>419.769971</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>417.40000700000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>411.70001000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>435.58999499999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>387.42993000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>408.56996099999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>393.23997200000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>382.08999399999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>430.57998700000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>386.04003699999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>397.01995499999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>410.88000299999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>432.16001799999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>433.28991500000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>428.449962999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>402.44998099999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>426.269926</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>458.41000200000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>443.119933</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>448.98007200000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>431.189956</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>408.96998500000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>468.20999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>462.59998899999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>418.94999399999898</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>410.660033</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>428.139951</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>427.44998199999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>400.62994500000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>413.05993899999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>419.75002899999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>425.97003000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>410.13001800000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>451.99001800000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>460.85992299999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>417.040021999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>424.46993900000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>425.60995300000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>412.17999099999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>421.28999199999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>444.999966999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>427.42996099999903</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>474.30003199999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>412.15997099999998</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>430.269927</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>445.659910999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>436.229962</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>433.46006599999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>451.84994499999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>425.940001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>451.199951</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>427.22999499999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>404.30994999999899</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>419.929959</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>433.82000699999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>405.52999899999998</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>445.89001300000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>450.90005500000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>413.36999500000002</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>446.59010499999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>429.42996099999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>436.10999800000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>411.72988700000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>383.96000500000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>410.209915999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>412.62988200000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>451.85000500000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>419.31994400000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>399.26997399999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>429.63995299999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>428.50997899999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>426.76992899999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>427.82005400000003</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>445.979962</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>449.35000700000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>435.56997699999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>435.83003300000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>465.96000800000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>435.30998199999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>408.57003700000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>451.210036</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>460.54002400000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>437.35000599999898</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>450.06995999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>429.879987999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>408.55990500000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>424.12997299999898</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>441.01002399999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>438.039962</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>457.71995399999997</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>419.479917</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>430.78998999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>455.14993299999998</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>425.35990800000002</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>425.93998599999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>425.26000900000003</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>443.30998199999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>457.19993399999998</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>465.91000500000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>447.38998500000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>428.95996300000002</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>420.48995699999898</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>452.96002099999998</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>443.20001100000002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>418.27005100000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>460.01994200000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>428.56991299999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>438.659986</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>449.57998400000002</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>423.70996000000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>428.47000100000002</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>483.97997700000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>446.46002099999998</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>425.47000100000002</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>495.86002999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>456.18997000000002</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>467.470000999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>430.27000399999997</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>486.61991799999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>464.13003500000002</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>413.20997399999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>438.09997299999998</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>434.07003700000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>414.64999299999897</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>444.61993100000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>438.659987</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>485.31994500000002</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>427.33994799999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>463.43002100000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>480.779967</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>447.91996799999998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>440.02999599999998</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>452.199996</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>446.75994700000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>463.69993599999998</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>443.70996100000002</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>457.42994399999998</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>432.069975</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>445.42993000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>424.779875</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>455.66000400000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>434.27003300000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>488.58003100000002</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>440.04002200000002</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>450.689954</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>452.46998400000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>468.189954</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>443.88004799999999</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>460.31994700000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>509.61002999999999</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>455.16003499999999</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>425.45996300000002</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>438.52998200000002</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>454.15995800000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>505.119978</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>442.060044</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>526.42001400000004</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>420.77995299999998</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>455.98002500000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>473.70992899999999</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>487.660033</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>449.78002800000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>451.33994799999999</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>495.440001</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>469.03005899999999</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>436.91996399999903</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>427.86996399999998</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>460.25996500000002</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>449.09997499999997</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>450.78999199999998</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>454.08006</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>476.87000799999998</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>467.72999399999998</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>448.92004300000002</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>459.80998199999999</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>477.43002200000001</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>473.50001300000002</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>483.37995899999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>434.32000699999998</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>473.160033</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>449.26995699999998</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>467.05990200000002</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>429.64993299999998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>458.96005100000002</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>434.17999099999997</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>448.93992600000001</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>466.05003199999999</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>445.58997799999997</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>464.97006099999999</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>433.69000199999999</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>464.849955999999</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>469.15001000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAE5-4798-A2E9-DE8142652A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="422178591"/>
+        <c:axId val="419240511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="422178591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419240511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419240511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="422178591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF755820-954F-2B92-0B97-2C5E4028277A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,24 +2321,24 @@
   <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>168.29998699999899</v>
+        <v>234.90000899999899</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>327.64001400000001</v>
+        <v>281.69998099999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>206.179991999999</v>
+        <v>347.24003599999998</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -415,17 +2347,17 @@
         <v>473822.14659685898</v>
       </c>
       <c r="G3">
-        <v>647120.44502617698</v>
+        <v>618402.46224248398</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>301.21993900000001</v>
+        <v>301.58990299999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>338.85995700000001</v>
+        <v>323.75996500000002</v>
       </c>
       <c r="F5">
         <f xml:space="preserve"> F3/(5*10^6)</f>
@@ -433,1489 +2365,1490 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> G3/(5*10^6)</f>
-        <v>0.12942408900523539</v>
+        <v>0.1236804924484968</v>
       </c>
       <c r="H5">
         <f>G5-F5</f>
-        <v>3.4659659685863597E-2</v>
+        <v>2.8916063129125008E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>302.790009</v>
+        <v>336.44002999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>306.22006399999998</v>
+        <v>325.23000999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>320.290007</v>
+        <v>320.349942</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>392.51998600000002</v>
+        <v>308.40005500000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>444.689956</v>
+        <v>350.540007</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>323.64001500000001</v>
+        <v>352.550048</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>380.29007200000001</v>
+        <v>342.17999400000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>346.58004699999998</v>
+        <v>414.82995499999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>313.22003100000001</v>
+        <v>374.63000499999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>351.919983</v>
+        <v>356.49008099999998</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>402.58003200000002</v>
+        <v>325.04006900000002</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>348.52001799999999</v>
+        <v>339.12995799999999</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>402.52004899999901</v>
+        <v>350.899992</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>335.080017</v>
+        <v>341.07997</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>358.10003699999999</v>
+        <v>362.89999399999999</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>414.31997699999903</v>
+        <v>370.35003399999999</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>368.52001899999902</v>
+        <v>351.59005400000001</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>346.93998599999901</v>
+        <v>351.92001299999998</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>368.52001899999902</v>
+        <v>347.11999300000002</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>379.29004099999997</v>
+        <v>379.06002599999999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>387.92002799999898</v>
+        <v>383.97009400000002</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>386.53005899999999</v>
+        <v>342.14001400000001</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>369.18003800000002</v>
+        <v>392.63999799999999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>372.940001</v>
+        <v>367.55999700000001</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>382.05000200000001</v>
+        <v>333.96996999999999</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>371.61001499999901</v>
+        <v>377.94000099999897</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>397.580062</v>
+        <v>381.81996099999998</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>372.06004199999899</v>
+        <v>346.26000900000003</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>417.220045999999</v>
+        <v>350.07000599999998</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>377.930037999999</v>
+        <v>406.16993300000001</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>402.250013999999</v>
+        <v>399.03997700000002</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>385.35000499999899</v>
+        <v>376.56997699999999</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>385.35000499999899</v>
+        <v>335.17999099999997</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>399.81002699999902</v>
+        <v>382.62994099999997</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>386.86002999999903</v>
+        <v>384.09992899999997</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>377.81994700000001</v>
+        <v>374.19994800000001</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>416.35000299999899</v>
+        <v>355.13998299999997</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>367.90002299999998</v>
+        <v>356.499999</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>377.200009999999</v>
+        <v>368.50994700000001</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>416.71003599999898</v>
+        <v>399.00993199999999</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>388.51002399999902</v>
+        <v>365.920029</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>385.35000499999899</v>
+        <v>378.69001700000001</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>399.81002699999902</v>
+        <v>376.38992200000001</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>403.77003400000001</v>
+        <v>355.249969999999</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>396.40000799999899</v>
+        <v>390.88999899999999</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>385.01003899999898</v>
+        <v>363.82995499999998</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>382.66001799999901</v>
+        <v>362.00999400000001</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>396.77993699999899</v>
+        <v>377.41000200000002</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>431.26998899999899</v>
+        <v>406.35998499999999</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>385.35000499999899</v>
+        <v>361.64996400000001</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>399.81002699999902</v>
+        <v>404.05001700000003</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>379.28999199999998</v>
+        <v>340.57996900000001</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>385.35000499999899</v>
+        <v>342.94000199999999</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>444.70010199999899</v>
+        <v>385.47999399999998</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>385.35000499999899</v>
+        <v>417.899945</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>410.86002999999903</v>
+        <v>394.04987799999998</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>389.14999299999897</v>
+        <v>376.12004100000001</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>373.920028</v>
+        <v>399.169983</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>389.30003099999902</v>
+        <v>364.76994200000001</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>397.920028</v>
+        <v>434.28982100000002</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>412.38004999999998</v>
+        <v>367.67997700000001</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>397.920028</v>
+        <v>356.98995599999898</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>397.920028</v>
+        <v>366.84995999999899</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>396.40000799999899</v>
+        <v>375.56004200000001</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>389.710050999999</v>
+        <v>364.04993999999999</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>403.61001499999901</v>
+        <v>384.39996499999899</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>388.38004999999998</v>
+        <v>366.16996799999998</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>396.06004199999899</v>
+        <v>388.18003700000003</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>397.920028</v>
+        <v>362.070021</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>399.81002699999902</v>
+        <v>352.89991800000001</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>385.13999799999999</v>
+        <v>398.540007</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>388.38004999999998</v>
+        <v>372.15997399999998</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>396.40000799999899</v>
+        <v>451.33998100000002</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>399.86002999999903</v>
+        <v>334.96992399999999</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>386.870025</v>
+        <v>366.059935</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>386.870025</v>
+        <v>424.39991500000002</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>401.33004699999998</v>
+        <v>398.67996199999999</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>388.05004899999898</v>
+        <v>367.129974</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>426.85006800000002</v>
+        <v>373.16999499999997</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>401.41006499999997</v>
+        <v>379.38998299999901</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>401.70992499999898</v>
+        <v>378.38992300000001</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>377.44003300000003</v>
+        <v>450.13000399999999</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>386.870025</v>
+        <v>388.58996300000001</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>391.61</v>
+        <v>385.39004199999999</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>427.52001899999999</v>
+        <v>435.40000800000001</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>385.01003899999898</v>
+        <v>417.64996200000002</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>442.35006700000002</v>
+        <v>437.04003799999998</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>428.730087999999</v>
+        <v>391.269926</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>425.54003899999998</v>
+        <v>395.730009</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>423.57005199999998</v>
+        <v>373.72000100000002</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>411.41004799999899</v>
+        <v>387.080017</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>443.85006499999997</v>
+        <v>391.65998599999898</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>420.17004499999899</v>
+        <v>428.81004300000001</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>439.98004099999901</v>
+        <v>425.07003600000002</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>390.77000399999997</v>
+        <v>381.11994600000003</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>431.17001399999998</v>
+        <v>402.88002</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>491.010007999999</v>
+        <v>422.94998199999998</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>452.71005300000002</v>
+        <v>410.56001099999997</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>442.90003999999902</v>
+        <v>394.68996800000002</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>424.00002899999998</v>
+        <v>381.59994399999999</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>429.89006000000001</v>
+        <v>405.569928</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>397.98005799999999</v>
+        <v>421.52999799999998</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>440.34007399999899</v>
+        <v>400.11002999999999</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>414.24005099999903</v>
+        <v>419.769971</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>407.85000499999899</v>
+        <v>417.40000700000002</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>450.510055999999</v>
+        <v>411.70001000000002</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>448.73005599999999</v>
+        <v>435.58999499999999</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>418.54003999999998</v>
+        <v>387.42993000000001</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>442.230042999999</v>
+        <v>408.56996099999998</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>407.70005700000002</v>
+        <v>393.23997200000002</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>438.38008199999899</v>
+        <v>382.08999399999999</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>417.37005699999997</v>
+        <v>430.57998700000002</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>427.05999699999899</v>
+        <v>386.04003699999998</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>451.99993899999998</v>
+        <v>397.01995499999998</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>483.70010599999898</v>
+        <v>410.88000299999999</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>517.79010100000005</v>
+        <v>432.16001799999998</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>532.60000599999898</v>
+        <v>433.28991500000001</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>504.340025999999</v>
+        <v>428.449962999999</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>556.20010400000001</v>
+        <v>402.44998099999998</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>512.14999199999897</v>
+        <v>426.269926</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>501.26003999999898</v>
+        <v>458.41000200000002</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>530.550017999999</v>
+        <v>443.119933</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>531.43008399999906</v>
+        <v>448.98007200000001</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>518.19000000000005</v>
+        <v>431.189956</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>551.340058</v>
+        <v>408.96998500000001</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>508.04006999999899</v>
+        <v>468.20999</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>502.98000999999903</v>
+        <v>462.59998899999999</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>519.75005999999905</v>
+        <v>418.94999399999898</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>511.800017999999</v>
+        <v>410.660033</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>528.74001999999996</v>
+        <v>428.139951</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>543.45010600000001</v>
+        <v>427.44998199999998</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>519.08999599999902</v>
+        <v>400.62994500000002</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>558.85003600000005</v>
+        <v>413.05993899999999</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>523.28997800000002</v>
+        <v>419.75002899999998</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>530.03002799999899</v>
+        <v>425.97003000000001</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>525.460051999999</v>
+        <v>410.13001800000001</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>535.00005999999905</v>
+        <v>451.99001800000002</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>541.05007799999998</v>
+        <v>460.85992299999998</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>557.02004799999895</v>
+        <v>417.040021999999</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>545.27008000000001</v>
+        <v>424.46993900000001</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>557.93005399999902</v>
+        <v>425.60995300000002</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>516.65005399999995</v>
+        <v>412.17999099999997</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>537.17007599999897</v>
+        <v>421.28999199999998</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>546.46011199999998</v>
+        <v>444.999966999999</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>547.33007799999996</v>
+        <v>427.42996099999903</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>532.10006599999997</v>
+        <v>474.30003199999999</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>560.76006999999902</v>
+        <v>412.15997099999998</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>539.37005599999998</v>
+        <v>430.269927</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>568.20004199999903</v>
+        <v>445.659910999999</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>573.10006599999997</v>
+        <v>436.229962</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>553.89004399999999</v>
+        <v>433.46006599999998</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>554.06008999999995</v>
+        <v>451.84994499999999</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>541.52004999999895</v>
+        <v>425.940001</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>569.26007000000004</v>
+        <v>451.199951</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>543.820099999999</v>
+        <v>427.22999499999997</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>570.62008799999899</v>
+        <v>404.30994999999899</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>552.19006199999899</v>
+        <v>419.929959</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>549.81002799999897</v>
+        <v>433.82000699999998</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>537.65005599999995</v>
+        <v>405.52999899999998</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>546.27004999999895</v>
+        <v>445.89001300000001</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>552.54007000000001</v>
+        <v>450.90005500000001</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>544.98010299999896</v>
+        <v>413.36999500000002</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>554.70001199999899</v>
+        <v>446.59010499999999</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>546.67001399999901</v>
+        <v>429.42996099999999</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>555.99001999999996</v>
+        <v>436.10999800000002</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>547.61007699999902</v>
+        <v>411.72988700000002</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>577.29003799999896</v>
+        <v>383.96000500000002</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>570.170074</v>
+        <v>410.209915999999</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>552.19003199999997</v>
+        <v>412.62988200000001</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>590.91006400000003</v>
+        <v>451.85000500000001</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>547.87005599999998</v>
+        <v>419.31994400000002</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>562.39004399999999</v>
+        <v>399.26997399999999</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>596.87002599999903</v>
+        <v>429.63995299999999</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>550.79003799999896</v>
+        <v>428.50997899999999</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>569.61004600000001</v>
+        <v>426.76992899999999</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>573.19003199999997</v>
+        <v>427.82005400000003</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>556.97009200000002</v>
+        <v>445.979962</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>565.59002599999906</v>
+        <v>449.35000700000001</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>584.89004399999999</v>
+        <v>435.56997699999999</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>576.73000999999999</v>
+        <v>435.83003300000001</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>554.730133999999</v>
+        <v>465.96000800000002</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>554.67007399999898</v>
+        <v>435.30998199999999</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>573.63000399999896</v>
+        <v>408.57003700000001</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>579.77004999999895</v>
+        <v>451.210036</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>573.15002400000003</v>
+        <v>460.54002400000002</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>565.250092</v>
+        <v>437.35000599999898</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>601.37008800000001</v>
+        <v>450.06995999999998</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>592.23000999999999</v>
+        <v>429.879987999999</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>556.43002200000001</v>
+        <v>408.55990500000001</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>586.09008799999901</v>
+        <v>424.12997299999898</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>574.55007999999896</v>
+        <v>441.01002399999999</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>601.050017999999</v>
+        <v>438.039962</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>558.83011099999999</v>
+        <v>457.71995399999997</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>559.29003799999896</v>
+        <v>419.479917</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>561.41006399999901</v>
+        <v>430.78998999999999</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>556.13009599999896</v>
+        <v>455.14993299999998</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>564.04013199999997</v>
+        <v>425.35990800000002</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>581.17010600000003</v>
+        <v>425.93998599999998</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>555.87005599999998</v>
+        <v>425.26000900000003</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>571.910034</v>
+        <v>443.30998199999999</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>549.29009999999903</v>
+        <v>457.19993399999998</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>574.77001799999903</v>
+        <v>465.91000500000001</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>580.410034</v>
+        <v>447.38998500000002</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>590.31002799999897</v>
+        <v>428.95996300000002</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>556.710051999999</v>
+        <v>420.48995699999898</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>553.750092</v>
+        <v>452.96002099999998</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>567.71005200000002</v>
+        <v>443.20001100000002</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>558.53002899999899</v>
+        <v>418.27005100000002</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>558.97006199999896</v>
+        <v>460.01994200000001</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>562.74004999999897</v>
+        <v>428.56991299999999</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>581.43002200000001</v>
+        <v>438.659986</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>552.19003199999997</v>
+        <v>449.57998400000002</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>562.05004799999904</v>
+        <v>423.70996000000002</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>558.97006199999896</v>
+        <v>428.47000100000002</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>549.09002599999906</v>
+        <v>483.97997700000002</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>552.19003199999997</v>
+        <v>446.46002099999998</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>552.23000999999999</v>
+        <v>425.47000100000002</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>549.95010400000001</v>
+        <v>495.86002999999999</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>549.95010400000001</v>
+        <v>456.18997000000002</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>552.19003199999997</v>
+        <v>467.470000999999</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>551.13009599999896</v>
+        <v>430.27000399999997</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>574.85009799999898</v>
+        <v>486.61991799999998</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>580.85006599999997</v>
+        <v>464.13003500000002</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>554.74008199999901</v>
+        <v>413.20997399999999</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>580.39004399999999</v>
+        <v>438.09997299999998</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>559.81008799999995</v>
+        <v>434.07003700000001</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>571.170074</v>
+        <v>414.64999299999897</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>568.27008000000001</v>
+        <v>444.61993100000001</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>559.08007799999996</v>
+        <v>438.659987</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>576.75005999999996</v>
+        <v>485.31994500000002</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>567.33007799999996</v>
+        <v>427.33994799999999</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>568.87008599999899</v>
+        <v>463.43002100000001</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>554.74008199999901</v>
+        <v>480.779967</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>582.890073999999</v>
+        <v>447.91996799999998</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>578.13006599999903</v>
+        <v>440.02999599999998</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>580.03008999999997</v>
+        <v>452.199996</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>583.91006400000003</v>
+        <v>446.75994700000001</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>590.81011999999998</v>
+        <v>463.69993599999998</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>563.52011199999902</v>
+        <v>443.70996100000002</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>572.63003400000002</v>
+        <v>457.42994399999998</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>568.76003999999898</v>
+        <v>432.069975</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>563.85000599999898</v>
+        <v>445.42993000000001</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>564.11004599999899</v>
+        <v>424.779875</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>554.21002199999998</v>
+        <v>455.66000400000001</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>569.59008799999901</v>
+        <v>434.27003300000001</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>565.73003999999901</v>
+        <v>488.58003100000002</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>566.52999799999998</v>
+        <v>440.04002200000002</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>563.42999199999895</v>
+        <v>450.689954</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>567.88006399999995</v>
+        <v>452.46998400000001</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>574.21002199999998</v>
+        <v>468.189954</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>555.91006399999901</v>
+        <v>443.88004799999999</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>566.52999799999998</v>
+        <v>460.31994700000001</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>552.19003199999997</v>
+        <v>509.61002999999999</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>562.090056</v>
+        <v>455.16003499999999</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>567.58999599999902</v>
+        <v>425.45996300000002</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>569.59008799999901</v>
+        <v>438.52998200000002</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>576.17004399999996</v>
+        <v>454.15995800000002</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>582.87008600000001</v>
+        <v>505.119978</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>565.210051999999</v>
+        <v>442.060044</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>603.31008999999995</v>
+        <v>526.42001400000004</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>575.03012000000001</v>
+        <v>420.77995299999998</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>574.01004</v>
+        <v>455.98002500000001</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>589.19009399999902</v>
+        <v>473.70992899999999</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>586.51007000000004</v>
+        <v>487.660033</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>583.01009999999997</v>
+        <v>449.78002800000002</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>605.07003599999996</v>
+        <v>451.33994799999999</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>579.60003500000005</v>
+        <v>495.440001</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>587.12005499999998</v>
+        <v>469.03005899999999</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>590.91006400000003</v>
+        <v>436.91996399999903</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>601.45004200000005</v>
+        <v>427.86996399999998</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>605.07003599999996</v>
+        <v>460.25996500000002</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>605.44006200000001</v>
+        <v>449.09997499999997</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>590.99008000000003</v>
+        <v>450.78999199999998</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>601.45004200000005</v>
+        <v>454.08006</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>588.43002200000001</v>
+        <v>476.87000799999998</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>583.50006099999996</v>
+        <v>467.72999399999998</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>602.39007500000002</v>
+        <v>448.92004300000002</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>605.07003599999996</v>
+        <v>459.80998199999999</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>603.910034</v>
+        <v>477.43002200000001</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>609.30011100000002</v>
+        <v>473.50001300000002</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>583.17007399999898</v>
+        <v>483.37995899999999</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>592.80004799999995</v>
+        <v>434.32000699999998</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>589.27010999999902</v>
+        <v>473.160033</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>607.11001599999997</v>
+        <v>449.26995699999998</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>589.75003000000004</v>
+        <v>467.05990200000002</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>575.67013399999996</v>
+        <v>429.64993299999998</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>593.37002399999994</v>
+        <v>458.96005100000002</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>592.43008399999997</v>
+        <v>434.17999099999997</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>584.11004599999899</v>
+        <v>448.93992600000001</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>598.33004600000004</v>
+        <v>466.05003199999999</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>590.91006400000003</v>
+        <v>445.58997799999997</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>588.37002399999994</v>
+        <v>464.97006099999999</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>594.53005800000005</v>
+        <v>433.69000199999999</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>590.99008000000003</v>
+        <v>464.849955999999</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>588.03011799999899</v>
+        <v>469.15001000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>